--- a/HDK/3D Models/raschet-zubchatoi-peredachi.xlsx
+++ b/HDK/3D Models/raschet-zubchatoi-peredachi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Workspace\Roborace\HDK\3D Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8CB121-148A-48A1-9ED9-23708637E72B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF311F9-C87D-450E-BDDC-5F267942A77C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="4152" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="4" r:id="rId1"/>
@@ -1314,21 +1314,21 @@
   <sheetPr codeName="Лист3"/>
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="3.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="88" t="s">
         <v>61</v>
       </c>
@@ -1343,7 +1343,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="90" t="s">
         <v>62</v>
       </c>
@@ -1578,8 +1578,7 @@
         <v>27</v>
       </c>
       <c r="D15" s="32">
-        <f>D13/17*COS(D5/180*PI())</f>
-        <v>0.41921417887955365</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E15" s="33" t="s">
         <v>14</v>
@@ -1598,7 +1597,7 @@
       </c>
       <c r="D16" s="8">
         <f>D15/2</f>
-        <v>0.20960708943977682</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E16" s="37" t="s">
         <v>14</v>
@@ -1651,7 +1650,7 @@
         <v>15</v>
       </c>
       <c r="D19" s="51">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E19" s="52" t="s">
         <v>14</v>
@@ -1668,7 +1667,7 @@
         <v>16</v>
       </c>
       <c r="D20" s="53">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E20" s="48" t="s">
         <v>14</v>
@@ -1703,7 +1702,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="85">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E22" s="54" t="s">
         <v>39</v>
@@ -1721,7 +1720,7 @@
       </c>
       <c r="D23" s="39">
         <f>D22*D6</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E23" s="19" t="s">
         <v>39</v>
@@ -1738,7 +1737,7 @@
         <v>18</v>
       </c>
       <c r="D24" s="86">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E24" s="55" t="s">
         <v>39</v>
@@ -1792,7 +1791,7 @@
       </c>
       <c r="D27" s="29">
         <f>D17*(D22+D24)/(2*COS(D5/180*PI()))</f>
-        <v>15.962666587138681</v>
+        <v>23.943999880708024</v>
       </c>
       <c r="E27" s="33" t="s">
         <v>14</v>
@@ -1827,7 +1826,7 @@
       </c>
       <c r="D29" s="63">
         <f>IF(D5=0,0,ACOS(D17*(D22+D24)/(2*D28))/PI()*180)</f>
-        <v>76.225853001973277</v>
+        <v>69.075167572361678</v>
       </c>
       <c r="E29" s="64" t="s">
         <v>50</v>
